--- a/biology/Botanique/Maria_Teresa_Parpagliolo/Maria_Teresa_Parpagliolo.xlsx
+++ b/biology/Botanique/Maria_Teresa_Parpagliolo/Maria_Teresa_Parpagliolo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maria Teresa Parpagliolo, née à Rome en 1903 et morte en 1974 dans la même ville, est une architecte paysagiste italienne qui a travaillé sur des projets privés et publics en Italie et en Grande-Bretagne de 1920 jusqu'à sa mort[1]. 
-Elle était membre du Landscape Institute (en) britannique et considérée comme l'une des pionnières de l'aménagement paysager européen[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maria Teresa Parpagliolo, née à Rome en 1903 et morte en 1974 dans la même ville, est une architecte paysagiste italienne qui a travaillé sur des projets privés et publics en Italie et en Grande-Bretagne de 1920 jusqu'à sa mort. 
+Elle était membre du Landscape Institute (en) britannique et considérée comme l'une des pionnières de l'aménagement paysager européen. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maria Teresa Parpagliolo a étudié avec le paysagiste Percy Stephen Cane (en) de 1931 à 1932[3], et a travaillé sur le projet de cimetière militaire français à Rome en 1944, qui ne voit pas le jour, avec Elena Luzzatto Valentini[3]. Elle a également contribué à la fondation de la International Federation of Landscape Architects (en) en 1948[1]. Elle a travaillé sur le jardin du restaurant Regatta lors du Festival de Grande-Bretagne en 1951[2]. En 1963, Maria Teresa Parpagliolo a conçu le jardin de l'hôtel Cavalieri de Rome[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maria Teresa Parpagliolo a étudié avec le paysagiste Percy Stephen Cane (en) de 1931 à 1932, et a travaillé sur le projet de cimetière militaire français à Rome en 1944, qui ne voit pas le jour, avec Elena Luzzatto Valentini. Elle a également contribué à la fondation de la International Federation of Landscape Architects (en) en 1948. Elle a travaillé sur le jardin du restaurant Regatta lors du Festival de Grande-Bretagne en 1951. En 1963, Maria Teresa Parpagliolo a conçu le jardin de l'hôtel Cavalieri de Rome.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Projets réalisés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1930-1932 : jardins publics à la Triennale de Monza et à Littoria.
 1939 : projet pour l'exposition de jardins italiens au E42 (avec l'architecte Giuseppe Meccoli).
@@ -555,7 +571,7 @@
 1963 : conception du parc de l'hôtel Hilton Cavalieri de Rome.
 1968 : atrium et jardin intérieur du siège de la RAI à Viale Mazzini.
 1970 : jardins de la Fondation Agnelli à Turin.
-1970-1971 : projet pour le jardin Bagh-e Babur à Kaboul (commandé par l'IsMEO[5].</t>
+1970-1971 : projet pour le jardin Bagh-e Babur à Kaboul (commandé par l'IsMEO.</t>
         </is>
       </c>
     </row>
